--- a/data/trans_orig/P34A_R-Clase-trans_orig.xlsx
+++ b/data/trans_orig/P34A_R-Clase-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>163394</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>141475</v>
+        <v>145068</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>182415</v>
+        <v>183779</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.3479647386237705</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.3012847659879597</v>
+        <v>0.3089363014216734</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3884709909105188</v>
+        <v>0.3913762523854047</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>105</v>
@@ -765,19 +765,19 @@
         <v>110688</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>94260</v>
+        <v>93634</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>126914</v>
+        <v>128405</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.3691100498290274</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.314326989704836</v>
+        <v>0.3122386172340231</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.4232179753918629</v>
+        <v>0.4281895602921732</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>260</v>
@@ -786,19 +786,19 @@
         <v>274083</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>245006</v>
+        <v>244758</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>302206</v>
+        <v>301199</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.3562057409619696</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.3184176041069708</v>
+        <v>0.3180944198173561</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3927564078912856</v>
+        <v>0.3914474652634373</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>306177</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>287156</v>
+        <v>285792</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>328096</v>
+        <v>324503</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.6520352613762296</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.6115290090894814</v>
+        <v>0.6086237476145953</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.6987152340120404</v>
+        <v>0.6910636985783266</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>186</v>
@@ -836,19 +836,19 @@
         <v>189191</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>172965</v>
+        <v>171474</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>205619</v>
+        <v>206245</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.6308899501709726</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.5767820246081371</v>
+        <v>0.5718104397078267</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.6856730102951639</v>
+        <v>0.687761382765977</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>482</v>
@@ -857,19 +857,19 @@
         <v>495367</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>467244</v>
+        <v>468251</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>524444</v>
+        <v>524692</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.6437942590380304</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.607243592108714</v>
+        <v>0.6085525347365627</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.6815823958930292</v>
+        <v>0.6819055801826438</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>108328</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>90891</v>
+        <v>91688</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>125981</v>
+        <v>129133</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.3001016520761444</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.25179618271765</v>
+        <v>0.2540053365990648</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3490071095868293</v>
+        <v>0.3577392977057562</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>152</v>
@@ -982,19 +982,19 @@
         <v>155385</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>138190</v>
+        <v>136102</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>174739</v>
+        <v>173347</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.4274884188549684</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.3801812013047751</v>
+        <v>0.3744366917316779</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.4807345021851238</v>
+        <v>0.4769028962740461</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>255</v>
@@ -1003,19 +1003,19 @@
         <v>263713</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>237594</v>
+        <v>236514</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>291485</v>
+        <v>289566</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.3640161000132184</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.3279633307517959</v>
+        <v>0.3264721760215856</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.402351375550122</v>
+        <v>0.3997030520630236</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>252642</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>234989</v>
+        <v>231837</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>270079</v>
+        <v>269282</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.6998983479238556</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.6509928904131705</v>
+        <v>0.6422607022942438</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.7482038172823496</v>
+        <v>0.7459946634009352</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>203</v>
@@ -1053,19 +1053,19 @@
         <v>208099</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>188745</v>
+        <v>190137</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>225294</v>
+        <v>227382</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.5725115811450315</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.5192654978148762</v>
+        <v>0.5230971037259539</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.6198187986952248</v>
+        <v>0.6255633082683222</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>445</v>
@@ -1074,19 +1074,19 @@
         <v>460741</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>432969</v>
+        <v>434888</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>486860</v>
+        <v>487940</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.6359838999867816</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.597648624449878</v>
+        <v>0.6002969479369762</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.672036669248204</v>
+        <v>0.6735278239784144</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>249248</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>227699</v>
+        <v>227669</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>270617</v>
+        <v>273650</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.4635300183744263</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.4234550672305389</v>
+        <v>0.4233993876751536</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.5032709731499208</v>
+        <v>0.5089110809483581</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>75</v>
@@ -1199,19 +1199,19 @@
         <v>76783</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>63464</v>
+        <v>65204</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>90244</v>
+        <v>90557</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.4663110303410384</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.3854217523924805</v>
+        <v>0.3959903723971043</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.548058778356311</v>
+        <v>0.5499617837981314</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>317</v>
@@ -1220,19 +1220,19 @@
         <v>326031</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>298791</v>
+        <v>300519</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>350327</v>
+        <v>353031</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.4641819822440402</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.4254003200776195</v>
+        <v>0.4278600572128838</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.4987733176643561</v>
+        <v>0.5026231167502464</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>288468</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>267099</v>
+        <v>264066</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>310017</v>
+        <v>310047</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.5364699816255737</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.4967290268500791</v>
+        <v>0.491088919051642</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.5765449327694609</v>
+        <v>0.5766006123248464</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>86</v>
@@ -1270,19 +1270,19 @@
         <v>87878</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>74417</v>
+        <v>74104</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>101197</v>
+        <v>99457</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.5336889696589616</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.4519412216436892</v>
+        <v>0.4500382162018685</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.6145782476075194</v>
+        <v>0.6040096276028958</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>371</v>
@@ -1291,19 +1291,19 @@
         <v>376346</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>352050</v>
+        <v>349346</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>403586</v>
+        <v>401858</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.5358180177559598</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.5012266823356437</v>
+        <v>0.4973768832497535</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.5745996799223803</v>
+        <v>0.5721399427871162</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>572417</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>536645</v>
+        <v>540138</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>606909</v>
+        <v>606829</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.4704292097671305</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.4410303255263943</v>
+        <v>0.4439009216950263</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.4987753183815565</v>
+        <v>0.4987100208310049</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>321</v>
@@ -1416,19 +1416,19 @@
         <v>334765</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>308648</v>
+        <v>309358</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>363104</v>
+        <v>361483</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.4736422378466819</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.4366916012852586</v>
+        <v>0.4376950216257379</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.5137387523796515</v>
+        <v>0.5114448043967804</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>884</v>
@@ -1437,19 +1437,19 @@
         <v>907182</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>861974</v>
+        <v>860866</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>952708</v>
+        <v>949437</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.471609781441937</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.4481076965863307</v>
+        <v>0.4475321045923193</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.4952772918843081</v>
+        <v>0.493576469572905</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>644381</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>609889</v>
+        <v>609969</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>680153</v>
+        <v>676660</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.5295707902328695</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.5012246816184436</v>
+        <v>0.5012899791689951</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.5589696744736057</v>
+        <v>0.556099078304974</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>366</v>
@@ -1487,19 +1487,19 @@
         <v>372023</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>343684</v>
+        <v>345305</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>398140</v>
+        <v>397430</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.5263577621533181</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.4862612476203484</v>
+        <v>0.4885551956032194</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.5633083987147414</v>
+        <v>0.562304978374262</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1007</v>
@@ -1508,19 +1508,19 @@
         <v>1016404</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>970878</v>
+        <v>974149</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1061612</v>
+        <v>1062720</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.528390218558063</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.5047227081156923</v>
+        <v>0.5064235304270951</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.5518923034136693</v>
+        <v>0.5524678954076808</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>174348</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>155723</v>
+        <v>156487</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>194962</v>
+        <v>193333</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.5085198974157882</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.4541989202657419</v>
+        <v>0.4564273517649916</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.5686447586417136</v>
+        <v>0.5638933115023985</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>282</v>
@@ -1633,19 +1633,19 @@
         <v>299880</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>276043</v>
+        <v>275600</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>321094</v>
+        <v>323133</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.5402198926379357</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.4972780922494064</v>
+        <v>0.4964806962207766</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.5784355564545198</v>
+        <v>0.5821082451649067</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>450</v>
@@ -1654,19 +1654,19 @@
         <v>474228</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>444241</v>
+        <v>446311</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>506940</v>
+        <v>504752</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.5281164191164205</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.4947220693517067</v>
+        <v>0.4970276468120803</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.5645459621285908</v>
+        <v>0.562109449102977</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>168505</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>147891</v>
+        <v>149520</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>187130</v>
+        <v>186366</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.4914801025842118</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.431355241358287</v>
+        <v>0.4361066884976015</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.5458010797342583</v>
+        <v>0.5435726482350085</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>244</v>
@@ -1704,19 +1704,19 @@
         <v>255228</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>234014</v>
+        <v>231975</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>279065</v>
+        <v>279508</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.4597801073620644</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.4215644435454802</v>
+        <v>0.4178917548350934</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.5027219077505937</v>
+        <v>0.5035193037792233</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>409</v>
@@ -1725,19 +1725,19 @@
         <v>423733</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>391021</v>
+        <v>393209</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>453720</v>
+        <v>451650</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.4718835808835795</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.4354540378714091</v>
+        <v>0.4378905508970233</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.5052779306482933</v>
+        <v>0.5029723531879198</v>
       </c>
     </row>
     <row r="18">
@@ -1829,19 +1829,19 @@
         <v>56464</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>44773</v>
+        <v>44940</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>71952</v>
+        <v>71088</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1899224561046963</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1505978524640519</v>
+        <v>0.1511578487593458</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2420169331244448</v>
+        <v>0.2391114228278582</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>537</v>
@@ -1850,19 +1850,19 @@
         <v>552487</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>515170</v>
+        <v>516829</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>586306</v>
+        <v>588490</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.4499941614982467</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.4195999362823218</v>
+        <v>0.420950702598249</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.4775393772676637</v>
+        <v>0.4793178537395203</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>593</v>
@@ -1871,19 +1871,19 @@
         <v>608951</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>574106</v>
+        <v>573776</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>648859</v>
+        <v>650399</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.3992948408320592</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.3764461603676812</v>
+        <v>0.3762299813803727</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.4254627421699249</v>
+        <v>0.4264724247961201</v>
       </c>
     </row>
     <row r="20">
@@ -1900,19 +1900,19 @@
         <v>240838</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>225350</v>
+        <v>226214</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>252529</v>
+        <v>252362</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.8100775438953037</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.7579830668755552</v>
+        <v>0.7608885771721416</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.8494021475359481</v>
+        <v>0.8488421512406541</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>680</v>
@@ -1921,19 +1921,19 @@
         <v>675278</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>641459</v>
+        <v>639275</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>712595</v>
+        <v>710936</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.5500058385017533</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.5224606227323362</v>
+        <v>0.5206821462604795</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.5804000637176782</v>
+        <v>0.5790492974017509</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>929</v>
@@ -1942,19 +1942,19 @@
         <v>916116</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>876208</v>
+        <v>874668</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>950961</v>
+        <v>951291</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.6007051591679408</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.574537257830075</v>
+        <v>0.5735275752038799</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.6235538396323188</v>
+        <v>0.6237700186196273</v>
       </c>
     </row>
     <row r="21">
@@ -2046,19 +2046,19 @@
         <v>1324199</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>1267808</v>
+        <v>1267596</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>1383461</v>
+        <v>1383623</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.4105774768254948</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.3930931157064722</v>
+        <v>0.3930274144893564</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.4289522900705777</v>
+        <v>0.4290024428511842</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>1472</v>
@@ -2067,19 +2067,19 @@
         <v>1529989</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>1475599</v>
+        <v>1472724</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>1589922</v>
+        <v>1586311</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.4611615854807236</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.4447676662436122</v>
+        <v>0.443901013507355</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.479226103856271</v>
+        <v>0.4781377186274988</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>2759</v>
@@ -2088,19 +2088,19 @@
         <v>2854188</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>2774895</v>
+        <v>2763100</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>2938027</v>
+        <v>2930135</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.4362270046977539</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.4241080559275586</v>
+        <v>0.4223053497999392</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.4490408152846951</v>
+        <v>0.4478345926314161</v>
       </c>
     </row>
     <row r="23">
@@ -2117,19 +2117,19 @@
         <v>1901011</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>1841749</v>
+        <v>1841587</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>1957402</v>
+        <v>1957614</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.5894225231745052</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.5710477099294223</v>
+        <v>0.5709975571488161</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.6069068842935278</v>
+        <v>0.6069725855106437</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>1765</v>
@@ -2138,19 +2138,19 @@
         <v>1787697</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>1727764</v>
+        <v>1731375</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>1842087</v>
+        <v>1844962</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.5388384145192765</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.520773896143729</v>
+        <v>0.5218622813725012</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.5552323337563878</v>
+        <v>0.556098986492645</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>3643</v>
@@ -2159,19 +2159,19 @@
         <v>3688708</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>3604869</v>
+        <v>3612761</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>3768001</v>
+        <v>3779796</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.5637729953022461</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.5509591847153049</v>
+        <v>0.5521654073685841</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.5758919440724415</v>
+        <v>0.5776946502000609</v>
       </c>
     </row>
     <row r="24">
@@ -2505,19 +2505,19 @@
         <v>68415</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>53836</v>
+        <v>53220</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>86892</v>
+        <v>84313</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1564797589380142</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1231348696575162</v>
+        <v>0.1217255477019798</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1987405394639327</v>
+        <v>0.1928437847241644</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>62</v>
@@ -2526,19 +2526,19 @@
         <v>67472</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>53310</v>
+        <v>53368</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>83590</v>
+        <v>85283</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2145680179919135</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1695326851515722</v>
+        <v>0.1697157965131039</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2658258064548563</v>
+        <v>0.271210886846276</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>125</v>
@@ -2547,19 +2547,19 @@
         <v>135886</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>114560</v>
+        <v>113716</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>159019</v>
+        <v>157706</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1807806101980336</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1524089277591775</v>
+        <v>0.1512858867776684</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2115562913772122</v>
+        <v>0.2098084094439906</v>
       </c>
     </row>
     <row r="5">
@@ -2576,19 +2576,19 @@
         <v>368796</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>350319</v>
+        <v>352898</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>383375</v>
+        <v>383991</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.8435202410619858</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8012594605360674</v>
+        <v>0.8071562152758356</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8768651303424841</v>
+        <v>0.8782744522980205</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>221</v>
@@ -2597,19 +2597,19 @@
         <v>246982</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>230864</v>
+        <v>229171</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>261144</v>
+        <v>261086</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.7854319820080865</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.7341741935451437</v>
+        <v>0.7287891131537239</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8304673148484277</v>
+        <v>0.830284203486896</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>562</v>
@@ -2618,19 +2618,19 @@
         <v>615779</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>592646</v>
+        <v>593959</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>637105</v>
+        <v>637949</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.8192193898019664</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.7884437086227878</v>
+        <v>0.7901915905560094</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8475910722408225</v>
+        <v>0.8487141132223317</v>
       </c>
     </row>
     <row r="6">
@@ -2722,19 +2722,19 @@
         <v>74927</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>59370</v>
+        <v>59722</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>92261</v>
+        <v>95399</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1789106338976331</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1417635868377796</v>
+        <v>0.1426047908755323</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2203001772430528</v>
+        <v>0.227793856847265</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>80</v>
@@ -2743,19 +2743,19 @@
         <v>86352</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>71820</v>
+        <v>71410</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>105258</v>
+        <v>104041</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2554716544232253</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2124771576586456</v>
+        <v>0.2112662339635831</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3114032821993916</v>
+        <v>0.3078039018206206</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>147</v>
@@ -2764,19 +2764,19 @@
         <v>161279</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>138343</v>
+        <v>138799</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>185807</v>
+        <v>186143</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.213104871706928</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.182797501949616</v>
+        <v>0.1833999075245088</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2455141719539572</v>
+        <v>0.24595856134607</v>
       </c>
     </row>
     <row r="8">
@@ -2793,19 +2793,19 @@
         <v>343870</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>326536</v>
+        <v>323398</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>359427</v>
+        <v>359075</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8210893661023669</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7796998227569469</v>
+        <v>0.7722061431527351</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8582364131622203</v>
+        <v>0.8573952091244676</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>225</v>
@@ -2814,19 +2814,19 @@
         <v>251659</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>232753</v>
+        <v>233970</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>266191</v>
+        <v>266601</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.7445283455767747</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.6885967178006085</v>
+        <v>0.6921960981793794</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7875228423413545</v>
+        <v>0.7887337660364171</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>533</v>
@@ -2835,19 +2835,19 @@
         <v>595529</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>571001</v>
+        <v>570665</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>618465</v>
+        <v>618009</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.786895128293072</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7544858280460427</v>
+        <v>0.75404143865393</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8172024980503839</v>
+        <v>0.8166000924754913</v>
       </c>
     </row>
     <row r="9">
@@ -2939,19 +2939,19 @@
         <v>159516</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>137324</v>
+        <v>137238</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>182649</v>
+        <v>183441</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2537966565762896</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2184888058454377</v>
+        <v>0.2183525109783125</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2906018742747736</v>
+        <v>0.2918635121302734</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>86</v>
@@ -2960,19 +2960,19 @@
         <v>91180</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>75070</v>
+        <v>75860</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>106140</v>
+        <v>107091</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.3505181710591906</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2885881130170856</v>
+        <v>0.2916254299313952</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.4080276331822236</v>
+        <v>0.411685134970831</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>234</v>
@@ -2981,19 +2981,19 @@
         <v>250696</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>225286</v>
+        <v>221582</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>280443</v>
+        <v>279115</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.282109478744015</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2535162696924831</v>
+        <v>0.2493478791980171</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3155841925583456</v>
+        <v>0.3140902286332011</v>
       </c>
     </row>
     <row r="11">
@@ -3010,19 +3010,19 @@
         <v>469002</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>445869</v>
+        <v>445077</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>491194</v>
+        <v>491280</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.7462033434237104</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.7093981257252268</v>
+        <v>0.7081364878697267</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.7815111941545624</v>
+        <v>0.7816474890216879</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>158</v>
@@ -3031,19 +3031,19 @@
         <v>168949</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>153989</v>
+        <v>153038</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>185059</v>
+        <v>184269</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.6494818289408094</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.5919723668177762</v>
+        <v>0.5883148650291691</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.7114118869829144</v>
+        <v>0.708374570068605</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>600</v>
@@ -3052,19 +3052,19 @@
         <v>637951</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>608204</v>
+        <v>609532</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>663361</v>
+        <v>667065</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.717890521255985</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.6844158074416544</v>
+        <v>0.685909771366799</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.7464837303075168</v>
+        <v>0.750652120801983</v>
       </c>
     </row>
     <row r="12">
@@ -3156,19 +3156,19 @@
         <v>292700</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>264365</v>
+        <v>265225</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>327665</v>
+        <v>327887</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2527310095477701</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2282657113179206</v>
+        <v>0.2290080343045364</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2829219002226119</v>
+        <v>0.2831131204494465</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>219</v>
@@ -3177,19 +3177,19 @@
         <v>235991</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>210853</v>
+        <v>210173</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>264439</v>
+        <v>263634</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.3078187617061363</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2750286240510304</v>
+        <v>0.2741421429025661</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.344925043886529</v>
+        <v>0.3438749647622821</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>491</v>
@@ -3198,19 +3198,19 @@
         <v>528692</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>487993</v>
+        <v>488982</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>569503</v>
+        <v>566141</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2746726709678114</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2535282739382617</v>
+        <v>0.2540419796234348</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2958756476697729</v>
+        <v>0.2941289551326242</v>
       </c>
     </row>
     <row r="14">
@@ -3227,19 +3227,19 @@
         <v>865448</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>830483</v>
+        <v>830261</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>893783</v>
+        <v>892923</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.7472689904522299</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.717078099777388</v>
+        <v>0.7168868795505535</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.7717342886820794</v>
+        <v>0.7709919656954639</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>492</v>
@@ -3248,19 +3248,19 @@
         <v>530666</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>502218</v>
+        <v>503023</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>555804</v>
+        <v>556484</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.6921812382938637</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6550749561134711</v>
+        <v>0.6561250352377179</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7249713759489697</v>
+        <v>0.7258578570974342</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1302</v>
@@ -3269,19 +3269,19 @@
         <v>1396114</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1355303</v>
+        <v>1358665</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1436813</v>
+        <v>1435824</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.7253273290321886</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7041243523302272</v>
+        <v>0.7058710448673758</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7464717260617384</v>
+        <v>0.7459580203765656</v>
       </c>
     </row>
     <row r="15">
@@ -3373,19 +3373,19 @@
         <v>143039</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>120670</v>
+        <v>122592</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>164389</v>
+        <v>164125</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.280140370550252</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2363326206601802</v>
+        <v>0.2400961726012788</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3219557708253185</v>
+        <v>0.321438922875068</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>261</v>
@@ -3394,19 +3394,19 @@
         <v>280361</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>252990</v>
+        <v>251912</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>307588</v>
+        <v>306042</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.3681587996159278</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.3322156810176271</v>
+        <v>0.3308012460308956</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.403911779496449</v>
+        <v>0.4018813804449071</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>397</v>
@@ -3415,19 +3415,19 @@
         <v>423400</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>389393</v>
+        <v>386773</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>458889</v>
+        <v>457944</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.3328304077774239</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.3060978527085086</v>
+        <v>0.3040386855768602</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3607284651183777</v>
+        <v>0.3599852046164602</v>
       </c>
     </row>
     <row r="17">
@@ -3444,19 +3444,19 @@
         <v>367557</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>346207</v>
+        <v>346471</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>389926</v>
+        <v>388004</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.719859629449748</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.6780442291746813</v>
+        <v>0.6785610771249319</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.7636673793398194</v>
+        <v>0.7599038273987212</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>442</v>
@@ -3465,19 +3465,19 @@
         <v>481161</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>453934</v>
+        <v>455480</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>508532</v>
+        <v>509610</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.6318412003840722</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.596088220503551</v>
+        <v>0.5981186195550928</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.667784318982373</v>
+        <v>0.6691987539691044</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>793</v>
@@ -3486,19 +3486,19 @@
         <v>848718</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>813229</v>
+        <v>814174</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>882725</v>
+        <v>885345</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.6671695922225761</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.6392715348816224</v>
+        <v>0.6400147953835399</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.6939021472914915</v>
+        <v>0.6959613144231399</v>
       </c>
     </row>
     <row r="18">
@@ -3590,19 +3590,19 @@
         <v>31132</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>21898</v>
+        <v>21751</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>43852</v>
+        <v>44190</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1166524209129088</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.08205101010648795</v>
+        <v>0.08150157826350569</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1643120258265187</v>
+        <v>0.1655797723556583</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>315</v>
@@ -3611,19 +3611,19 @@
         <v>336455</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>307155</v>
+        <v>308049</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>370886</v>
+        <v>367847</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.303590170737185</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.2771524445650493</v>
+        <v>0.277958621369004</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.3346582910625548</v>
+        <v>0.3319155278524619</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>345</v>
@@ -3632,19 +3632,19 @@
         <v>367587</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>332047</v>
+        <v>337888</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>401848</v>
+        <v>402387</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.267309885196483</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2414647286159799</v>
+        <v>0.2457123097221054</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2922245303727375</v>
+        <v>0.2926158972136833</v>
       </c>
     </row>
     <row r="20">
@@ -3661,19 +3661,19 @@
         <v>235750</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>223030</v>
+        <v>222692</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>244984</v>
+        <v>245131</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.8833475790870913</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8356879741734813</v>
+        <v>0.8344202276443414</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9179489898935119</v>
+        <v>0.9184984217364939</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>728</v>
@@ -3682,19 +3682,19 @@
         <v>771799</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>737368</v>
+        <v>740407</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>801099</v>
+        <v>800205</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.696409829262815</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.665341708937445</v>
+        <v>0.668084472147538</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.7228475554349507</v>
+        <v>0.7220413786309959</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>963</v>
@@ -3703,19 +3703,19 @@
         <v>1007549</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>973288</v>
+        <v>972749</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1043089</v>
+        <v>1037248</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.7326901148035171</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.7077754696272625</v>
+        <v>0.7073841027863167</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.7585352713840201</v>
+        <v>0.7542876902778946</v>
       </c>
     </row>
     <row r="21">
@@ -3807,19 +3807,19 @@
         <v>769729</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>722543</v>
+        <v>715633</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>824941</v>
+        <v>824058</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.2250568467509589</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.2112604704695379</v>
+        <v>0.2092402573664927</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2412001739854797</v>
+        <v>0.2409418981113467</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>1023</v>
@@ -3828,19 +3828,19 @@
         <v>1097812</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>1040785</v>
+        <v>1042143</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>1156748</v>
+        <v>1152061</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.3093274238961773</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2932592778977116</v>
+        <v>0.2936419447501546</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.3259336795741409</v>
+        <v>0.3246130012438368</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1739</v>
@@ -3849,19 +3849,19 @@
         <v>1867540</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1794300</v>
+        <v>1790146</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1953067</v>
+        <v>1943514</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2679713098635785</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2574621830126276</v>
+        <v>0.2568660497711146</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2802434228465884</v>
+        <v>0.2788727395731585</v>
       </c>
     </row>
     <row r="23">
@@ -3878,19 +3878,19 @@
         <v>2650423</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>2595211</v>
+        <v>2596094</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>2697609</v>
+        <v>2704519</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.7749431532490411</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.7587998260145205</v>
+        <v>0.7590581018886534</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.7887395295304622</v>
+        <v>0.7907597426335073</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>2266</v>
@@ -3899,19 +3899,19 @@
         <v>2451216</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>2392280</v>
+        <v>2396967</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>2508243</v>
+        <v>2506885</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.6906725761038227</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.6740663204258589</v>
+        <v>0.6753869987561631</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.7067407221022883</v>
+        <v>0.7063580552498453</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>4753</v>
@@ -3920,19 +3920,19 @@
         <v>5101640</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>5016113</v>
+        <v>5025666</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>5174880</v>
+        <v>5179034</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.7320286901364215</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.7197565771534116</v>
+        <v>0.7211272604268414</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.7425378169873723</v>
+        <v>0.7431339502288855</v>
       </c>
     </row>
     <row r="24">
@@ -4266,19 +4266,19 @@
         <v>108064</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>89875</v>
+        <v>89873</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>128012</v>
+        <v>126477</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2518429478921213</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2094541896006822</v>
+        <v>0.2094490269940829</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2983324114597412</v>
+        <v>0.2947538250426479</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>92</v>
@@ -4287,19 +4287,19 @@
         <v>97777</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>80934</v>
+        <v>80541</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>114202</v>
+        <v>114846</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.281733457068486</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2332026815189688</v>
+        <v>0.2320706283860743</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3290609135110366</v>
+        <v>0.330916591595672</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>196</v>
@@ -4308,19 +4308,19 @@
         <v>205841</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>181576</v>
+        <v>183320</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>230329</v>
+        <v>232549</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.265208520364989</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2339458653242332</v>
+        <v>0.2361920008524145</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2967592047531784</v>
+        <v>0.2996198737541925</v>
       </c>
     </row>
     <row r="5">
@@ -4337,19 +4337,19 @@
         <v>321028</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>301080</v>
+        <v>302615</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>339217</v>
+        <v>339219</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.7481570521078786</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.7016675885402589</v>
+        <v>0.7052461749573521</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.7905458103993178</v>
+        <v>0.7905509730059167</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>240</v>
@@ -4358,19 +4358,19 @@
         <v>249278</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>232853</v>
+        <v>232209</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>266121</v>
+        <v>266514</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.718266542931514</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.6709390864889635</v>
+        <v>0.6690834084043283</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.7667973184810314</v>
+        <v>0.7679293716139257</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>532</v>
@@ -4379,19 +4379,19 @@
         <v>570306</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>545818</v>
+        <v>543598</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>594571</v>
+        <v>592827</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.734791479635011</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.7032407952468216</v>
+        <v>0.7003801262458075</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.7660541346757671</v>
+        <v>0.7638079991475856</v>
       </c>
     </row>
     <row r="6">
@@ -4483,19 +4483,19 @@
         <v>98544</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>82258</v>
+        <v>82244</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>116159</v>
+        <v>118226</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2612330644701438</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2180591533483325</v>
+        <v>0.2180219526102965</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.307928495204116</v>
+        <v>0.3134077763865293</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>112</v>
@@ -4504,19 +4504,19 @@
         <v>118718</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>100329</v>
+        <v>101152</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>136863</v>
+        <v>136982</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.3189000285482225</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2695041080675699</v>
+        <v>0.2717143665146987</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3676416253330557</v>
+        <v>0.3679620521438767</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>207</v>
@@ -4525,19 +4525,19 @@
         <v>217262</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>193395</v>
+        <v>192797</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>241371</v>
+        <v>244883</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2898759752809218</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2580316033566665</v>
+        <v>0.2572346180929527</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3220420384236745</v>
+        <v>0.3267286086658634</v>
       </c>
     </row>
     <row r="8">
@@ -4554,19 +4554,19 @@
         <v>278683</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>261068</v>
+        <v>259001</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>294969</v>
+        <v>294983</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.7387669355298562</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.692071504795884</v>
+        <v>0.6865922236134708</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.7819408466516673</v>
+        <v>0.7819780473897034</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>240</v>
@@ -4575,19 +4575,19 @@
         <v>253555</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>235410</v>
+        <v>235291</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>271944</v>
+        <v>271121</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.6810999714517776</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.6323583746669443</v>
+        <v>0.6320379478561233</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7304958919324301</v>
+        <v>0.7282856334853013</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>499</v>
@@ -4596,19 +4596,19 @@
         <v>532238</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>508129</v>
+        <v>504617</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>556105</v>
+        <v>556703</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.7101240247190782</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.6779579615763255</v>
+        <v>0.6732713913341364</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.7419683966433335</v>
+        <v>0.7427653819070473</v>
       </c>
     </row>
     <row r="9">
@@ -4700,19 +4700,19 @@
         <v>192110</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>168581</v>
+        <v>170234</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>213832</v>
+        <v>215565</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.3680874076221942</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.3230054225704027</v>
+        <v>0.3261728789975256</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.4097073653014295</v>
+        <v>0.4130270999517213</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>63</v>
@@ -4721,19 +4721,19 @@
         <v>69452</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>56652</v>
+        <v>56385</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>83057</v>
+        <v>83691</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.4180769716560069</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.3410274249569772</v>
+        <v>0.3394145638310535</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.4999757755667401</v>
+        <v>0.5037876513331953</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>244</v>
@@ -4742,19 +4742,19 @@
         <v>261562</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>233112</v>
+        <v>235274</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>287143</v>
+        <v>289802</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.3801571257499163</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.3388080508411251</v>
+        <v>0.3419501215318867</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.417337683596206</v>
+        <v>0.421201981342076</v>
       </c>
     </row>
     <row r="11">
@@ -4771,19 +4771,19 @@
         <v>329804</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>308082</v>
+        <v>306349</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>353333</v>
+        <v>351680</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.6319125923778058</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.5902926346985706</v>
+        <v>0.5869729000482787</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.6769945774295973</v>
+        <v>0.6738271210024745</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>90</v>
@@ -4792,19 +4792,19 @@
         <v>96671</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>83066</v>
+        <v>82432</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>109471</v>
+        <v>109738</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.5819230283439931</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.5000242244332597</v>
+        <v>0.4962123486668046</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.6589725750430226</v>
+        <v>0.660585436168946</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>411</v>
@@ -4813,19 +4813,19 @@
         <v>426474</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>400893</v>
+        <v>398234</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>454924</v>
+        <v>452762</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.6198428742500837</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.582662316403794</v>
+        <v>0.578798018657924</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.6611919491588749</v>
+        <v>0.6580498784681132</v>
       </c>
     </row>
     <row r="12">
@@ -4917,19 +4917,19 @@
         <v>443768</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>412374</v>
+        <v>414347</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>477816</v>
+        <v>481128</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.3860068444880714</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.358699365821312</v>
+        <v>0.3604150745568641</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.4156232748623434</v>
+        <v>0.4185038480336584</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>332</v>
@@ -4938,19 +4938,19 @@
         <v>352580</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>324677</v>
+        <v>324863</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>380663</v>
+        <v>382061</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.426916986419688</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.3931299822874428</v>
+        <v>0.3933552038415186</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.4609207115699053</v>
+        <v>0.4626132328497163</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>758</v>
@@ -4959,19 +4959,19 @@
         <v>796349</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>749984</v>
+        <v>754873</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>839250</v>
+        <v>843905</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.4031095806181345</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.3796401647212052</v>
+        <v>0.38211469430688</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.4248262682222896</v>
+        <v>0.4271822841978838</v>
       </c>
     </row>
     <row r="14">
@@ -4988,19 +4988,19 @@
         <v>705870</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>671822</v>
+        <v>668510</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>737264</v>
+        <v>735291</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.6139931555119286</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.5843767251376566</v>
+        <v>0.5814961519663416</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.641300634178688</v>
+        <v>0.6395849254431359</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>466</v>
@@ -5009,19 +5009,19 @@
         <v>473296</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>445213</v>
+        <v>443815</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>501199</v>
+        <v>501013</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.573083013580312</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.5390792884300949</v>
+        <v>0.5373867671502844</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.6068700177125571</v>
+        <v>0.6066447961584814</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1143</v>
@@ -5030,19 +5030,19 @@
         <v>1179165</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1136264</v>
+        <v>1131609</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1225530</v>
+        <v>1220641</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.5968904193818655</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.5751737317777104</v>
+        <v>0.5728177158021163</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.6203598352787948</v>
+        <v>0.6178853056931199</v>
       </c>
     </row>
     <row r="15">
@@ -5134,19 +5134,19 @@
         <v>253482</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>229737</v>
+        <v>229108</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>278007</v>
+        <v>276944</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.4083773561736525</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.3701219367395363</v>
+        <v>0.3691092254140542</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.4478883096131168</v>
+        <v>0.4461762840046694</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>333</v>
@@ -5155,19 +5155,19 @@
         <v>354260</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>324296</v>
+        <v>327457</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>380189</v>
+        <v>381398</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.4798684733387804</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.4392801847879793</v>
+        <v>0.4435618195044368</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.5149913612717943</v>
+        <v>0.5166283173056722</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>577</v>
@@ -5176,19 +5176,19 @@
         <v>607742</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>572680</v>
+        <v>569954</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>645733</v>
+        <v>643371</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.4472146181501055</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.421413496536728</v>
+        <v>0.4194074406890321</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.4751705462542439</v>
+        <v>0.4734325409758554</v>
       </c>
     </row>
     <row r="17">
@@ -5205,19 +5205,19 @@
         <v>367224</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>342699</v>
+        <v>343762</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>390969</v>
+        <v>391598</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.5916226438263475</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.5521116903868831</v>
+        <v>0.5538237159953306</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.6298780632604635</v>
+        <v>0.6308907745859456</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>366</v>
@@ -5226,19 +5226,19 @@
         <v>383984</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>358055</v>
+        <v>356846</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>413948</v>
+        <v>410787</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.5201315266612196</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.4850086387282057</v>
+        <v>0.4833716826943284</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.5607198152120209</v>
+        <v>0.5564381804955632</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>719</v>
@@ -5247,19 +5247,19 @@
         <v>751208</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>713217</v>
+        <v>715579</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>786270</v>
+        <v>788996</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.5527853818498946</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.5248294537457562</v>
+        <v>0.5265674590241447</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.578586503463272</v>
+        <v>0.5805925593109681</v>
       </c>
     </row>
     <row r="18">
@@ -5351,19 +5351,19 @@
         <v>50844</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>39054</v>
+        <v>38794</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>65049</v>
+        <v>65046</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1770672258701929</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1360078420537641</v>
+        <v>0.1351027985554387</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2265371232753221</v>
+        <v>0.2265283341938867</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>458</v>
@@ -5372,19 +5372,19 @@
         <v>514944</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>480000</v>
+        <v>480965</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>547977</v>
+        <v>552702</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.4759075747025978</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.4436122196167815</v>
+        <v>0.4445048464514396</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.5064363030594182</v>
+        <v>0.5108029404846577</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>507</v>
@@ -5393,19 +5393,19 @@
         <v>565788</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>525577</v>
+        <v>529186</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>600660</v>
+        <v>607282</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.4132341623064877</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.383865585403422</v>
+        <v>0.3865013229150258</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.4387038404560605</v>
+        <v>0.4435399127175348</v>
       </c>
     </row>
     <row r="20">
@@ -5422,19 +5422,19 @@
         <v>236301</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>222096</v>
+        <v>222099</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>248091</v>
+        <v>248351</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.8229327741298071</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.773462876724678</v>
+        <v>0.7734716658061134</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.8639921579462359</v>
+        <v>0.8648972014445613</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>534</v>
@@ -5443,19 +5443,19 @@
         <v>567081</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>534048</v>
+        <v>529323</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>602025</v>
+        <v>601060</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.5240924252974022</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.4935636969405818</v>
+        <v>0.4891970595153423</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.5563877803832187</v>
+        <v>0.5554951535485606</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>757</v>
@@ -5464,19 +5464,19 @@
         <v>803382</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>768510</v>
+        <v>761888</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>843593</v>
+        <v>839984</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.5867658376935123</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.5612961595439395</v>
+        <v>0.5564600872824651</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.616134414596578</v>
+        <v>0.6134986770849742</v>
       </c>
     </row>
     <row r="21">
@@ -5568,19 +5568,19 @@
         <v>1146812</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>1093769</v>
+        <v>1095935</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>1209869</v>
+        <v>1206336</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.3387201533465109</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.323053498049812</v>
+        <v>0.3236929984336409</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.3573444981441975</v>
+        <v>0.356301073969816</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>1390</v>
@@ -5589,19 +5589,19 @@
         <v>1507731</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>1449049</v>
+        <v>1451217</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>1567804</v>
+        <v>1566631</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.4269263662863175</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.4103099923443811</v>
+        <v>0.4109238875033832</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.4439363126196723</v>
+        <v>0.4436042066100006</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>2489</v>
@@ -5610,19 +5610,19 @@
         <v>2654544</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>2573196</v>
+        <v>2571136</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>2731835</v>
+        <v>2742425</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.3837533143891521</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.3719932732589478</v>
+        <v>0.371695568936428</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.3949269034020625</v>
+        <v>0.3964578324477157</v>
       </c>
     </row>
     <row r="23">
@@ -5639,19 +5639,19 @@
         <v>2238910</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>2175853</v>
+        <v>2179386</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>2291953</v>
+        <v>2289787</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.661279846653489</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.6426555018558026</v>
+        <v>0.643698926030184</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.6769465019501879</v>
+        <v>0.676307001566359</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>1936</v>
@@ -5660,19 +5660,19 @@
         <v>2023865</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>1963792</v>
+        <v>1964965</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>2082547</v>
+        <v>2080379</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.5730736337136826</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.5560636873803277</v>
+        <v>0.5563957933899994</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.5896900076556189</v>
+        <v>0.5890761124966168</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>4061</v>
@@ -5681,19 +5681,19 @@
         <v>4262774</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>4185483</v>
+        <v>4174893</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>4344122</v>
+        <v>4346182</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.6162466856108479</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.6050730965979375</v>
+        <v>0.6035421675522842</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.6280067267410524</v>
+        <v>0.628304431063572</v>
       </c>
     </row>
     <row r="24">
@@ -6027,19 +6027,19 @@
         <v>147240</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>125995</v>
+        <v>126789</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>169574</v>
+        <v>168862</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.268654039307968</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2298909865367817</v>
+        <v>0.231338923860029</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3094047498783874</v>
+        <v>0.3081055649917393</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>161</v>
@@ -6048,19 +6048,19 @@
         <v>114414</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>98063</v>
+        <v>99087</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>130184</v>
+        <v>131107</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2342577306251764</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2007802843168777</v>
+        <v>0.2028756701571149</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2665454715418884</v>
+        <v>0.2684365803846802</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>306</v>
@@ -6069,19 +6069,19 @@
         <v>261654</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>236017</v>
+        <v>234904</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>290645</v>
+        <v>290328</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2524457234195053</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2277107896315683</v>
+        <v>0.2266372972074022</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2804164360501913</v>
+        <v>0.2801107984354485</v>
       </c>
     </row>
     <row r="5">
@@ -6098,19 +6098,19 @@
         <v>400825</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>378491</v>
+        <v>379203</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>422070</v>
+        <v>421276</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.7313459606920321</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.6905952501216126</v>
+        <v>0.6918944350082608</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.7701090134632184</v>
+        <v>0.768661076139971</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>525</v>
@@ -6119,19 +6119,19 @@
         <v>373997</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>358227</v>
+        <v>357304</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>390348</v>
+        <v>389324</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.7657422693748236</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.7334545284581115</v>
+        <v>0.7315634196153198</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.799219715683122</v>
+        <v>0.7971243298428851</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>932</v>
@@ -6140,19 +6140,19 @@
         <v>774822</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>745831</v>
+        <v>746148</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>800459</v>
+        <v>801572</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.7475542765804947</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.7195835639498088</v>
+        <v>0.7198892015645513</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.7722892103684319</v>
+        <v>0.7733627027925979</v>
       </c>
     </row>
     <row r="6">
@@ -6244,19 +6244,19 @@
         <v>123521</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>104842</v>
+        <v>104406</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>145549</v>
+        <v>145704</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2556239582671767</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.216968268133848</v>
+        <v>0.2160670493855262</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3012105114501638</v>
+        <v>0.3015331535240464</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>194</v>
@@ -6265,19 +6265,19 @@
         <v>139356</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>122704</v>
+        <v>122731</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>156422</v>
+        <v>156242</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.3293353428799455</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2899824455625479</v>
+        <v>0.2900455041260031</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3696674486310337</v>
+        <v>0.3692405444354896</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>320</v>
@@ -6286,19 +6286,19 @@
         <v>262876</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>237242</v>
+        <v>238358</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>290814</v>
+        <v>288176</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2900370145535759</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2617542364267544</v>
+        <v>0.2629850796763853</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3208605476499113</v>
+        <v>0.3179506619256453</v>
       </c>
     </row>
     <row r="8">
@@ -6315,19 +6315,19 @@
         <v>359691</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>337663</v>
+        <v>337508</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>378370</v>
+        <v>378806</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.7443760417328235</v>
+        <v>0.7443760417328233</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.6987894885498361</v>
+        <v>0.6984668464759538</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.7830317318661518</v>
+        <v>0.7839329506144739</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>396</v>
@@ -6336,19 +6336,19 @@
         <v>283787</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>266721</v>
+        <v>266901</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>300439</v>
+        <v>300412</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.6706646571200543</v>
+        <v>0.6706646571200545</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.6303325513689664</v>
+        <v>0.6307594555645103</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7100175544374521</v>
+        <v>0.7099544958739965</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>751</v>
@@ -6357,19 +6357,19 @@
         <v>643479</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>615541</v>
+        <v>618179</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>669113</v>
+        <v>667997</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.7099629854464241</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.6791394523500888</v>
+        <v>0.6820493380743549</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.7382457635732456</v>
+        <v>0.7370149203236148</v>
       </c>
     </row>
     <row r="9">
@@ -6461,19 +6461,19 @@
         <v>174466</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>151037</v>
+        <v>151567</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>197445</v>
+        <v>196533</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.3706777799556399</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.3208996679357482</v>
+        <v>0.3220250720885207</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.419501070251074</v>
+        <v>0.4175624528084745</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>117</v>
@@ -6482,19 +6482,19 @@
         <v>77889</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>66400</v>
+        <v>66274</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>89044</v>
+        <v>89806</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.4170523140146437</v>
+        <v>0.4170523140146438</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.3555348274726789</v>
+        <v>0.3548608573282595</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.4767820631575032</v>
+        <v>0.4808586498933017</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>289</v>
@@ -6503,19 +6503,19 @@
         <v>252355</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>228267</v>
+        <v>225225</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>276659</v>
+        <v>275822</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.3838517799392598</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.3472120194946823</v>
+        <v>0.3425848040064883</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.4208205698733602</v>
+        <v>0.4195464655855575</v>
       </c>
     </row>
     <row r="11">
@@ -6532,19 +6532,19 @@
         <v>296201</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>273222</v>
+        <v>274134</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>319630</v>
+        <v>319100</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.6293222200443601</v>
+        <v>0.6293222200443602</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.580498929748926</v>
+        <v>0.5824375471915256</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.6791003320642519</v>
+        <v>0.6779749279114793</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>171</v>
@@ -6553,19 +6553,19 @@
         <v>108872</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>97717</v>
+        <v>96955</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>120361</v>
+        <v>120487</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.5829476859853562</v>
+        <v>0.5829476859853564</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.5232179368424968</v>
+        <v>0.5191413501066983</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.6444651725273211</v>
+        <v>0.6451391426717408</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>486</v>
@@ -6574,19 +6574,19 @@
         <v>405073</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>380769</v>
+        <v>381606</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>429161</v>
+        <v>432203</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.6161482200607401</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.5791794301266396</v>
+        <v>0.5804535344144425</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.6527879805053178</v>
+        <v>0.6574151959935117</v>
       </c>
     </row>
     <row r="12">
@@ -6678,19 +6678,19 @@
         <v>427964</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>395274</v>
+        <v>392978</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>461610</v>
+        <v>461956</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.3795057046734142</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.3505174947009217</v>
+        <v>0.348480793405037</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.4093419723246843</v>
+        <v>0.4096491567147162</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>492</v>
@@ -6699,19 +6699,19 @@
         <v>348259</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>323473</v>
+        <v>324928</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>372783</v>
+        <v>374623</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.4049006237462571</v>
+        <v>0.404900623746257</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.3760835323343876</v>
+        <v>0.3777753186918632</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.4334139327206378</v>
+        <v>0.4355532261499201</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>923</v>
@@ -6720,19 +6720,19 @@
         <v>776223</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>735038</v>
+        <v>732984</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>822490</v>
+        <v>821378</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.3904939504516288</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.3697749043889459</v>
+        <v>0.3687416804427757</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.4137693110748097</v>
+        <v>0.4132098863016608</v>
       </c>
     </row>
     <row r="14">
@@ -6749,19 +6749,19 @@
         <v>699724</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>666078</v>
+        <v>665732</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>732414</v>
+        <v>734710</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.6204942953265858</v>
+        <v>0.6204942953265857</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.5906580276753156</v>
+        <v>0.5903508432852838</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.6494825052990782</v>
+        <v>0.6515192065949629</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>736</v>
@@ -6770,19 +6770,19 @@
         <v>511850</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>487326</v>
+        <v>485486</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>536636</v>
+        <v>535181</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.595099376253743</v>
+        <v>0.5950993762537429</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.5665860672793621</v>
+        <v>0.5644467738500799</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.6239164676656125</v>
+        <v>0.6222246813081367</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1419</v>
@@ -6791,19 +6791,19 @@
         <v>1211575</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1165308</v>
+        <v>1166420</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1252760</v>
+        <v>1254814</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.6095060495483712</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.5862306889251906</v>
+        <v>0.5867901136983393</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.630225095611054</v>
+        <v>0.6312583195572243</v>
       </c>
     </row>
     <row r="15">
@@ -6895,19 +6895,19 @@
         <v>249972</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>223413</v>
+        <v>224540</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>273888</v>
+        <v>276891</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.4419218716938864</v>
+        <v>0.4419218716938863</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.3949687415285602</v>
+        <v>0.3969610664398805</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.4842021876367238</v>
+        <v>0.4895120063546148</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>586</v>
@@ -6916,19 +6916,19 @@
         <v>378714</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>352812</v>
+        <v>354737</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>402027</v>
+        <v>403138</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.4573435821936824</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.4260641018069602</v>
+        <v>0.4283887420583729</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.4854972729246116</v>
+        <v>0.4868390285911389</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>832</v>
@@ -6937,19 +6937,19 @@
         <v>628686</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>594082</v>
+        <v>589521</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>664201</v>
+        <v>663992</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.4510846155799186</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.4262562624012654</v>
+        <v>0.4229838612379677</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.4765669369509598</v>
+        <v>0.4764166111607683</v>
       </c>
     </row>
     <row r="17">
@@ -6966,19 +6966,19 @@
         <v>315676</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>291760</v>
+        <v>288757</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>342235</v>
+        <v>341108</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.5580781283061137</v>
+        <v>0.5580781283061136</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.5157978123632762</v>
+        <v>0.5104879936453851</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.6050312584714398</v>
+        <v>0.6030389335601195</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>700</v>
@@ -6987,19 +6987,19 @@
         <v>449359</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>426046</v>
+        <v>424935</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>475261</v>
+        <v>473336</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.5426564178063177</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.5145027270753886</v>
+        <v>0.5131609714088612</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.5739358981930399</v>
+        <v>0.5716112579416271</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>999</v>
@@ -7008,19 +7008,19 @@
         <v>765035</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>729520</v>
+        <v>729729</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>799639</v>
+        <v>804200</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.5489153844200815</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.5234330630490404</v>
+        <v>0.5235833888392318</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.5737437375987345</v>
+        <v>0.5770161387620324</v>
       </c>
     </row>
     <row r="18">
@@ -7112,19 +7112,19 @@
         <v>28716</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>15226</v>
+        <v>15879</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>49543</v>
+        <v>50605</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1210492050133113</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.0641821159883852</v>
+        <v>0.06693638090279257</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.208843036681144</v>
+        <v>0.2133177541333968</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>575</v>
@@ -7133,19 +7133,19 @@
         <v>410535</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>383033</v>
+        <v>381701</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>439667</v>
+        <v>438557</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.4882353395226611</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.4555283381435272</v>
+        <v>0.4539449822554631</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.5228817895862956</v>
+        <v>0.5215612368791616</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>591</v>
@@ -7154,19 +7154,19 @@
         <v>439251</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>405738</v>
+        <v>401926</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>478589</v>
+        <v>473324</v>
       </c>
       <c r="U19" s="6" t="n">
-        <v>0.4074374801626541</v>
+        <v>0.407437480162654</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.3763513264897485</v>
+        <v>0.3728153471682331</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.4439264922905297</v>
+        <v>0.439042953057113</v>
       </c>
     </row>
     <row r="20">
@@ -7183,19 +7183,19 @@
         <v>208512</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>187685</v>
+        <v>186623</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>222002</v>
+        <v>221349</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.8789507949866887</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.7911569633188557</v>
+        <v>0.7866822458666033</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9358178840116148</v>
+        <v>0.9330636190972076</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>580</v>
@@ -7204,19 +7204,19 @@
         <v>430319</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>401187</v>
+        <v>402297</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>457821</v>
+        <v>459153</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.5117646604773389</v>
+        <v>0.511764660477339</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.4771182104137043</v>
+        <v>0.4784387631208384</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.5444716618564719</v>
+        <v>0.5460550177445369</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>676</v>
@@ -7225,19 +7225,19 @@
         <v>638831</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>599493</v>
+        <v>604758</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>672344</v>
+        <v>676156</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.5925625198373459</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.5560735077094704</v>
+        <v>0.5609570469428872</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.6236486735102515</v>
+        <v>0.6271846528317669</v>
       </c>
     </row>
     <row r="21">
@@ -7329,19 +7329,19 @@
         <v>1151879</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>1092294</v>
+        <v>1089834</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>1213410</v>
+        <v>1210705</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.3355793445656504</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.3182202612891928</v>
+        <v>0.3175037057917546</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.3535054384248643</v>
+        <v>0.3527172995294854</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>2125</v>
@@ -7350,19 +7350,19 @@
         <v>1469167</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>1422120</v>
+        <v>1421782</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>1526871</v>
+        <v>1518824</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.4050246017183183</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.3920547120336028</v>
+        <v>0.3919614034256378</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.4209327631457567</v>
+        <v>0.4187141291079278</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>3261</v>
@@ -7371,19 +7371,19 @@
         <v>2621046</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>2542388</v>
+        <v>2539290</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>2701590</v>
+        <v>2703616</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.3712602778508434</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.3601187272862769</v>
+        <v>0.3596799033574788</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.3826691200028168</v>
+        <v>0.3829560964435933</v>
       </c>
     </row>
     <row r="23">
@@ -7400,19 +7400,19 @@
         <v>2280629</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>2219098</v>
+        <v>2221803</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>2340214</v>
+        <v>2342674</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.6644206554343497</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.646494561575136</v>
+        <v>0.6472827004705139</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.6817797387108073</v>
+        <v>0.6824962942082452</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>3108</v>
@@ -7421,19 +7421,19 @@
         <v>2158185</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>2100481</v>
+        <v>2108528</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>2205232</v>
+        <v>2205570</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.5949753982816817</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.5790672368542435</v>
+        <v>0.5812858708920722</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.6079452879663974</v>
+        <v>0.6080385965743622</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>5263</v>
@@ -7442,19 +7442,19 @@
         <v>4438814</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>4358270</v>
+        <v>4356244</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>4517472</v>
+        <v>4520570</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.6287397221491566</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.6173308799971832</v>
+        <v>0.6170439035564068</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.6398812727137231</v>
+        <v>0.6403200966425213</v>
       </c>
     </row>
     <row r="24">
